--- a/data/trans_dic/P70B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,7; 87,06</t>
+          <t>55,47; 86,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,97; 94,71</t>
+          <t>76,7; 94,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>69,44; 87,97</t>
+          <t>71,6; 88,98</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,76; 90,73</t>
+          <t>81,25; 91,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,25; 89,41</t>
+          <t>80,25; 88,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,22; 88,96</t>
+          <t>82,5; 88,93</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,24; 86,94</t>
+          <t>79,08; 86,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,51; 86,17</t>
+          <t>79,49; 86,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,06; 85,38</t>
+          <t>80,52; 85,62</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,71; 90,88</t>
+          <t>83,96; 90,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,31; 87,31</t>
+          <t>79,32; 87,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,71; 88,93</t>
+          <t>83,73; 88,9</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,62; 90,11</t>
+          <t>82,04; 90,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,49; 90,65</t>
+          <t>83,81; 90,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,06; 89,37</t>
+          <t>84,1; 89,39</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,59; 100,0</t>
+          <t>95,95; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>83,81; 100,0</t>
+          <t>82,46; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,09; 100,0</t>
+          <t>89,53; 99,62</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>83,51; 87,52</t>
+          <t>83,41; 87,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82,94; 87,01</t>
+          <t>82,81; 86,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>83,96; 86,64</t>
+          <t>83,86; 86,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,47; 86,64</t>
+          <t>56,7; 87,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,7; 94,43</t>
+          <t>76,97; 94,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,6; 88,98</t>
+          <t>69,44; 87,97</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,25; 91,13</t>
+          <t>80,76; 90,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,25; 88,94</t>
+          <t>80,25; 89,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,5; 88,93</t>
+          <t>82,22; 88,96</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,08; 86,6</t>
+          <t>79,24; 86,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,49; 86,25</t>
+          <t>79,51; 86,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,52; 85,62</t>
+          <t>80,06; 85,38</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,96; 90,77</t>
+          <t>83,71; 90,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,32; 87,62</t>
+          <t>79,31; 87,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,73; 88,9</t>
+          <t>83,71; 88,93</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,04; 90,07</t>
+          <t>82,62; 90,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,81; 90,67</t>
+          <t>83,49; 90,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,1; 89,39</t>
+          <t>84,06; 89,37</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,95; 100,0</t>
+          <t>95,59; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,46; 100,0</t>
+          <t>83,81; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,53; 99,62</t>
+          <t>90,09; 100,0</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>83,41; 87,61</t>
+          <t>83,51; 87,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82,81; 86,93</t>
+          <t>82,94; 87,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>83,86; 86,64</t>
+          <t>83,96; 86,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>73,34%</t>
+          <t>72,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>87,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>81,05%</t>
+          <t>79,78%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,7; 87,06</t>
+          <t>53,79; 86,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,97; 94,71</t>
+          <t>76,53; 94,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>69,44; 87,97</t>
+          <t>66,73; 87,52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>86,69%</t>
+          <t>86,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>85,03%</t>
+          <t>87,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>87,02%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,76; 90,73</t>
+          <t>80,29; 90,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,25; 89,41</t>
+          <t>82,29; 93,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,22; 88,96</t>
+          <t>83,26; 90,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>82,84%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>83,12%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>83,12%</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>83,12%</t>
+          <t>82,96%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,24; 86,94</t>
+          <t>79,12; 86,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,51; 86,17</t>
+          <t>79,37; 86,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,06; 85,38</t>
+          <t>79,97; 85,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>90,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>84,6%</t>
+          <t>85,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>86,19%</t>
+          <t>88,93%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,71; 90,88</t>
+          <t>85,65; 96,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,31; 87,31</t>
+          <t>81,96; 89,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,71; 88,93</t>
+          <t>85,48; 94,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>86,58%</t>
+          <t>86,67%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>87,2%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>86,84%</t>
+          <t>86,9%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,62; 90,11</t>
+          <t>82,74; 90,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,49; 90,65</t>
+          <t>83,53; 90,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,06; 89,37</t>
+          <t>84,11; 89,42</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>99,19%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>97,89%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,59; 100,0</t>
+          <t>94,86; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>83,81; 100,0</t>
+          <t>83,96; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,09; 100,0</t>
+          <t>91,19; 100,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>85,5%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>85,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>85,31%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>83,51; 87,52</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82,94; 87,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>83,96; 86,64</t>
+          <t>43,07; 100</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>86,8%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>86,03%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>86,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>84,13; 91,6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>84,15; 88,58</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>84,72; 89,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P70B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,79; 86,03</t>
+          <t>53,88; 86,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,53; 94,52</t>
+          <t>77,44; 95,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66,73; 87,52</t>
+          <t>67,17; 87,7</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,29; 90,56</t>
+          <t>81,42; 90,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,29; 93,86</t>
+          <t>82,22; 93,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,26; 90,88</t>
+          <t>83,46; 91,06</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,12; 86,72</t>
+          <t>78,59; 86,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,37; 86,14</t>
+          <t>79,92; 86,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,97; 85,26</t>
+          <t>80,29; 85,26</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,65; 96,47</t>
+          <t>85,13; 96,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,96; 89,16</t>
+          <t>81,99; 89,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,48; 94,31</t>
+          <t>85,07; 94,14</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,74; 90,12</t>
+          <t>82,68; 89,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,53; 90,62</t>
+          <t>83,21; 90,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,11; 89,42</t>
+          <t>84,17; 89,63</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>94,86; 100,0</t>
+          <t>93,86; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>83,96; 100,0</t>
+          <t>82,01; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>91,19; 100,0</t>
+          <t>91,42; 100,0</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>84,13; 91,6</t>
+          <t>84,17; 90,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>84,15; 88,58</t>
+          <t>83,89; 88,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,72; 89,4</t>
+          <t>84,78; 89,35</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que concilia su vida profesional y laboral</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>63386</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>71455</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>134842</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>47298; 75773</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>62914; 77244</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>113534; 148238</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>303275</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>308709</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>611983</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>285233; 318574</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>290159; 331134</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>586910; 640359</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>381206</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>291003</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>672209</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>361656; 398030</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>279814; 301945</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>650540; 690839</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>677757</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>388578</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1066335</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>635320; 716920</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>371236; 405293</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1020006; 1128803</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>260286</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>180738</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>441024</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>248278; 269984</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>172399; 187417</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>427127; 454877</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>16776</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17185</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>33962</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>15902; 16943</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>14558; 17751</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>31718; 34694</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1598</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1598</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>688; 1598</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>688; 1598</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1442</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1755</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3197</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1704284</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1257670</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2961954</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1652582; 1785734</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1226398; 1290624</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2904039; 3060596</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>